--- a/SE182407_VuKimDuy_GenerateReportYearly_Consumer/Data/Output/Reports/RO123456/Yearly-Report-[2023]-[RO123456].xlsx
+++ b/SE182407_VuKimDuy_GenerateReportYearly_Consumer/Data/Output/Reports/RO123456/Yearly-Report-[2023]-[RO123456].xlsx
@@ -37,112 +37,259 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>482598</x:t>
+    <x:t>255165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Professional Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>246007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49201.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>295208</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>464733</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Various paper supplies</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33778</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6755.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40533.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>736332</x:t>
+  </x:si>
+  <x:si>
+    <x:t>291720</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>350064</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-08-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>770421</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Concierge Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6232.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37396.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EUR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-12-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>375942</x:t>
+  </x:si>
+  <x:si>
+    <x:t>127422</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25484.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>152906</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-12-26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>594777</x:t>
   </x:si>
   <x:si>
     <x:t>Waste management services</x:t>
   </x:si>
   <x:si>
-    <x:t>22977</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4595.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27572.4</x:t>
+    <x:t>208813</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41762.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>250576</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-12-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>804329</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56985</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11397</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68382</x:t>
   </x:si>
   <x:si>
     <x:t>CAD</x:t>
   </x:si>
   <x:si>
-    <x:t>2017-08-15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>551064</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Concierge Services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>211294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42258.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>253553</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RON</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-12-13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>535940</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10450</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2090</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12540</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-01-10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>688399</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Various paper supplies</x:t>
-  </x:si>
-  <x:si>
-    <x:t>205363</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41072.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>246436</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-06-03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>955749</x:t>
-  </x:si>
-  <x:si>
-    <x:t>109410</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21882</x:t>
-  </x:si>
-  <x:si>
-    <x:t>131292</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-03-28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>543547</x:t>
-  </x:si>
-  <x:si>
-    <x:t>147407</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29481.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>176888</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-03-27</x:t>
+    <x:t>2017-02-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>301621</x:t>
+  </x:si>
+  <x:si>
+    <x:t>256214</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51242.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>307457</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-02-14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>984975</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111634</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22326.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>133961</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-02-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>674491</x:t>
+  </x:si>
+  <x:si>
+    <x:t>158208</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31641.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>189850</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-01-17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>589391</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14805.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88833.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-07-27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>370050</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beverages and Catering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>254458</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50891.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>305350</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>762356</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91757</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18351.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110108</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>676500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT Support</x:t>
+  </x:si>
+  <x:si>
+    <x:t>186510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37302</x:t>
+  </x:si>
+  <x:si>
+    <x:t>223812</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-05-17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>411764</x:t>
+  </x:si>
+  <x:si>
+    <x:t>171452</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34290.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>205742</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-09-03</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -493,7 +640,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G7"/>
+  <x:dimension ref="A1:G16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -585,30 +732,30 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
         <x:v>25</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="C5" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="D5" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="s">
+      <x:c r="E5" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="F5" s="0" t="s">
         <x:v>31</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>25</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
         <x:v>32</x:v>
@@ -619,7 +766,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
         <x:v>34</x:v>
@@ -642,22 +789,229 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:7">
+      <x:c r="A8" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>42</x:v>
+      <x:c r="C8" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:7">
+      <x:c r="A9" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:7">
+      <x:c r="A10" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:7">
+      <x:c r="A11" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:7">
+      <x:c r="A12" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:7">
+      <x:c r="A13" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:7">
+      <x:c r="A14" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:7">
+      <x:c r="A15" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:7">
+      <x:c r="A16" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>91</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
